--- a/uni_data.xlsx
+++ b/uni_data.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susantran/Downloads/POLI SCI 312/312_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profiles\stk6673\Downloads\312final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD1DE65-170C-A941-A75C-8FBB89E9BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BDAF63-9D1A-4E72-B602-1F0BD9F996B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="27585" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endowments" sheetId="1" r:id="rId1"/>
     <sheet name="zip codes" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1504,15 +1492,15 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -1550,7 +1538,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>223232</v>
       </c>
@@ -1581,8 +1569,14 @@
       <c r="J2">
         <v>47380</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>9.5466060000000005E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.14612289000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>139144</v>
       </c>
@@ -1614,7 +1608,7 @@
         <v>40660</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>164924</v>
       </c>
@@ -1646,7 +1640,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>164988</v>
       </c>
@@ -1678,7 +1672,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>165015</v>
       </c>
@@ -1710,7 +1704,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>217156</v>
       </c>
@@ -1742,7 +1736,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>211273</v>
       </c>
@@ -1774,7 +1768,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>173258</v>
       </c>
@@ -1806,7 +1800,7 @@
         <v>22060</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>211440</v>
       </c>
@@ -1838,7 +1832,7 @@
         <v>38300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>190099</v>
       </c>
@@ -1870,7 +1864,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>190150</v>
       </c>
@@ -1902,7 +1896,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>198419</v>
       </c>
@@ -1934,7 +1928,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>131469</v>
       </c>
@@ -1966,7 +1960,7 @@
         <v>47900</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>153384</v>
       </c>
@@ -1995,7 +1989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>191515</v>
       </c>
@@ -2027,7 +2021,7 @@
         <v>46540</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>166027</v>
       </c>
@@ -2059,7 +2053,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>145646</v>
       </c>
@@ -2091,7 +2085,7 @@
         <v>14010</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>153603</v>
       </c>
@@ -2123,7 +2117,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>162928</v>
       </c>
@@ -2155,7 +2149,7 @@
         <v>12580</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>232557</v>
       </c>
@@ -2187,7 +2181,7 @@
         <v>31340</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>193900</v>
       </c>
@@ -2219,7 +2213,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>147767</v>
       </c>
@@ -2250,8 +2244,14 @@
       <c r="J23">
         <v>16980</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>0.44321719999999998</v>
+      </c>
+      <c r="L23">
+        <v>0.4026188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>204501</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>17460</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>121150</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>31080</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>243780</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>195003</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>40380</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>186380</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>167835</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>44140</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>399911</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>31080</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>216287</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>228875</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>192110</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>216366</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>104179</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>110662</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>31080</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>110699</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>144050</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>16980</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>130943</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>145637</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>16580</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>174066</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>33460</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>207971</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>46140</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>230764</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>41620</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>236948</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>42660</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>233921</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>13980</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>199847</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>49180</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>234207</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>236939</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>179867</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>41180</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>231624</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>47260</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>130794</v>
       </c>
@@ -3157,12 +3157,12 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>47380</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>40660</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>22060</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>38300</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>47900</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>46540</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>14010</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>12580</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>31340</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>16980</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>17460</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>31080</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>40380</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>44140</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>31080</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>31080</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>16980</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>16580</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>33460</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>46140</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>41620</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>42660</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>165</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>13980</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>49180</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>41180</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>184</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>47260</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>188</v>
       </c>

--- a/uni_data.xlsx
+++ b/uni_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profiles\stk6673\Downloads\312final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BDAF63-9D1A-4E72-B602-1F0BD9F996B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10137E9F-2DAF-4778-ABA4-EC004216CC86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="27585" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1607,6 +1607,12 @@
       <c r="J3">
         <v>40660</v>
       </c>
+      <c r="K3">
+        <v>0.13014999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.20356589999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1639,6 +1645,12 @@
       <c r="J4">
         <v>14460</v>
       </c>
+      <c r="K4">
+        <v>9.9043069999999997E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.13700729</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1671,6 +1683,12 @@
       <c r="J5">
         <v>14460</v>
       </c>
+      <c r="K5">
+        <v>0.12626889999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.1800901</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1703,6 +1721,12 @@
       <c r="J6">
         <v>14460</v>
       </c>
+      <c r="K6">
+        <v>9.8972190000000002E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.13694902</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1735,6 +1759,12 @@
       <c r="J7">
         <v>39300</v>
       </c>
+      <c r="K7">
+        <v>0.16004170000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.19382160000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1767,6 +1797,12 @@
       <c r="J8">
         <v>37980</v>
       </c>
+      <c r="K8">
+        <v>0.1170557</v>
+      </c>
+      <c r="L8">
+        <v>0.17652899999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1799,6 +1835,12 @@
       <c r="J9">
         <v>22060</v>
       </c>
+      <c r="K9">
+        <v>2.5709630000000001E-2</v>
+      </c>
+      <c r="L9">
+        <v>0.11464036</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1831,6 +1873,12 @@
       <c r="J10">
         <v>38300</v>
       </c>
+      <c r="K10">
+        <v>0.1802327</v>
+      </c>
+      <c r="L10">
+        <v>0.30525659999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1863,6 +1911,12 @@
       <c r="J11">
         <v>45060</v>
       </c>
+      <c r="K11">
+        <v>3.6489260000000003E-2</v>
+      </c>
+      <c r="L11">
+        <v>0.17353229000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1895,6 +1949,12 @@
       <c r="J12">
         <v>35620</v>
       </c>
+      <c r="K12">
+        <v>0.3019193</v>
+      </c>
+      <c r="L12">
+        <v>0.26401659999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1927,6 +1987,12 @@
       <c r="J13">
         <v>20500</v>
       </c>
+      <c r="K13">
+        <v>0.13396240000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.1355248</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1959,6 +2025,12 @@
       <c r="J14">
         <v>47900</v>
       </c>
+      <c r="K14">
+        <v>0.34277679999999999</v>
+      </c>
+      <c r="L14">
+        <v>0.3352736</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1988,6 +2060,12 @@
       <c r="I15" t="s">
         <v>55</v>
       </c>
+      <c r="K15">
+        <v>2.4995320000000001E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.13065076</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2020,6 +2098,12 @@
       <c r="J16">
         <v>46540</v>
       </c>
+      <c r="K16">
+        <v>0.14064019999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.28329599999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -2052,6 +2136,12 @@
       <c r="J17">
         <v>14460</v>
       </c>
+      <c r="K17">
+        <v>9.8990309999999998E-2</v>
+      </c>
+      <c r="L17">
+        <v>0.13696702999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2084,6 +2174,12 @@
       <c r="J18">
         <v>14010</v>
       </c>
+      <c r="K18">
+        <v>6.8147910000000006E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.12394814</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2116,6 +2212,12 @@
       <c r="J19">
         <v>11180</v>
       </c>
+      <c r="K19">
+        <v>5.7771790000000003E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.1252318</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2148,6 +2250,12 @@
       <c r="J20">
         <v>12580</v>
       </c>
+      <c r="K20">
+        <v>0.31592819999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.37646580000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -3146,6 +3254,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/uni_data.xlsx
+++ b/uni_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profiles\stk6673\Downloads\312final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susantran/Downloads/POLI SCI 312/312final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10137E9F-2DAF-4778-ABA4-EC004216CC86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87421C3-C138-A042-88B2-701D0D6D48C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="27585" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endowments" sheetId="1" r:id="rId1"/>
@@ -1491,16 +1491,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="10.875" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>223232</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>0.14612289000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>139144</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0.20356589999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>164924</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0.13700729</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>164988</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0.1800901</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>165015</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0.13694902</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>217156</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0.19382160000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>211273</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0.17652899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>173258</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0.11464036</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>211440</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0.30525659999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>190099</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0.17353229000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>190150</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0.26401659999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>198419</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0.1355248</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>131469</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0.3352736</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>153384</v>
       </c>
@@ -2061,13 +2061,13 @@
         <v>55</v>
       </c>
       <c r="K15">
-        <v>2.4995320000000001E-2</v>
+        <v>3.9881350000000003E-2</v>
       </c>
       <c r="L15">
-        <v>0.13065076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.17077263000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>191515</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>0.28329599999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>166027</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>0.13696702999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>145646</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0.12394814</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>153603</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0.1252318</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>162928</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>0.37646580000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>232557</v>
       </c>
@@ -2288,8 +2288,14 @@
       <c r="J21">
         <v>31340</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0.1149802</v>
+      </c>
+      <c r="L21">
+        <v>0.145231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>193900</v>
       </c>
@@ -2320,8 +2326,14 @@
       <c r="J22">
         <v>35620</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0.3019384</v>
+      </c>
+      <c r="L22">
+        <v>0.26402340000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>147767</v>
       </c>
@@ -2359,7 +2371,7 @@
         <v>0.4026188</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>204501</v>
       </c>
@@ -2390,8 +2402,14 @@
       <c r="J24">
         <v>17460</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>9.1086940000000005E-2</v>
+      </c>
+      <c r="L24">
+        <v>0.19849873000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>121150</v>
       </c>
@@ -2422,8 +2440,14 @@
       <c r="J25">
         <v>31080</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0.25912210000000002</v>
+      </c>
+      <c r="L25">
+        <v>0.2129326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>243780</v>
       </c>
@@ -2454,8 +2478,14 @@
       <c r="J26">
         <v>29200</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0.10865370000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.17325180000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>195003</v>
       </c>
@@ -2486,8 +2516,14 @@
       <c r="J27">
         <v>40380</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>0.1903338</v>
+      </c>
+      <c r="L27">
+        <v>0.27020159999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>186380</v>
       </c>
@@ -2518,8 +2554,14 @@
       <c r="J28">
         <v>35620</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0.179448</v>
+      </c>
+      <c r="L28">
+        <v>0.17047599999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>167835</v>
       </c>
@@ -2550,8 +2592,14 @@
       <c r="J29">
         <v>44140</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>6.0377529999999999E-2</v>
+      </c>
+      <c r="L29">
+        <v>6.0377529999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>399911</v>
       </c>
@@ -2582,8 +2630,14 @@
       <c r="J30">
         <v>31080</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0.18536820000000001</v>
+      </c>
+      <c r="L30">
+        <v>0.1863882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>216287</v>
       </c>
@@ -2614,8 +2668,14 @@
       <c r="J31">
         <v>37980</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0.29030129999999998</v>
+      </c>
+      <c r="L31">
+        <v>0.35647060000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>228875</v>
       </c>
@@ -2646,8 +2706,14 @@
       <c r="J32">
         <v>19100</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0.15913150000000001</v>
+      </c>
+      <c r="L32">
+        <v>0.1675751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>192110</v>
       </c>
@@ -2678,8 +2744,14 @@
       <c r="J33">
         <v>35620</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0.30189270000000001</v>
+      </c>
+      <c r="L33">
+        <v>0.2640052</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>216366</v>
       </c>
@@ -2710,8 +2782,14 @@
       <c r="J34">
         <v>37980</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>0.39919199999999999</v>
+      </c>
+      <c r="L34">
+        <v>0.35448499999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>104179</v>
       </c>
@@ -2742,8 +2820,14 @@
       <c r="J35">
         <v>46060</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0.13491210000000001</v>
+      </c>
+      <c r="L35">
+        <v>0.17590539999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>110662</v>
       </c>
@@ -2774,8 +2858,14 @@
       <c r="J36">
         <v>31080</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>0.25913520000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.2129491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>110699</v>
       </c>
@@ -2806,8 +2896,14 @@
       <c r="J37">
         <v>41860</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>0.1878464</v>
+      </c>
+      <c r="L37">
+        <v>0.16713249999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>144050</v>
       </c>
@@ -2838,8 +2934,14 @@
       <c r="J38">
         <v>16980</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>0.44330530000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.40265240000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>130943</v>
       </c>
@@ -2870,8 +2972,14 @@
       <c r="J39">
         <v>37980</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>0.1656099</v>
+      </c>
+      <c r="L39">
+        <v>0.1858223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>145637</v>
       </c>
@@ -2902,8 +3010,14 @@
       <c r="J40">
         <v>16580</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>0.16320109999999999</v>
+      </c>
+      <c r="L40">
+        <v>0.2023867</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>174066</v>
       </c>
@@ -2934,8 +3048,14 @@
       <c r="J41">
         <v>33460</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>0.16832520000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.2024185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>207971</v>
       </c>
@@ -2966,8 +3086,14 @@
       <c r="J42">
         <v>46140</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>0.14424709999999999</v>
+      </c>
+      <c r="L42">
+        <v>0.1673964</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>230764</v>
       </c>
@@ -2998,8 +3124,14 @@
       <c r="J43">
         <v>41620</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>0.12546950000000001</v>
+      </c>
+      <c r="L43">
+        <v>0.17858370000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>236948</v>
       </c>
@@ -3030,8 +3162,14 @@
       <c r="J44">
         <v>42660</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>0.1546826</v>
+      </c>
+      <c r="L44">
+        <v>0.15945129999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>233921</v>
       </c>
@@ -3062,8 +3200,14 @@
       <c r="J45">
         <v>13980</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>5.7891860000000003E-2</v>
+      </c>
+      <c r="L45">
+        <v>0.1106998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>199847</v>
       </c>
@@ -3094,8 +3238,14 @@
       <c r="J46">
         <v>49180</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>0.163437</v>
+      </c>
+      <c r="L46">
+        <v>0.1975413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>234207</v>
       </c>
@@ -3123,8 +3273,14 @@
       <c r="I47" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>2.5115749999999999E-2</v>
+      </c>
+      <c r="L47">
+        <v>9.6098119999999995E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>236939</v>
       </c>
@@ -3155,8 +3311,14 @@
       <c r="J48">
         <v>39420</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>6.1077520000000003E-2</v>
+      </c>
+      <c r="L48">
+        <v>0.11570343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>179867</v>
       </c>
@@ -3187,8 +3349,14 @@
       <c r="J49">
         <v>41180</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>0.30632749999999997</v>
+      </c>
+      <c r="L49">
+        <v>0.38596510000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>231624</v>
       </c>
@@ -3219,8 +3387,14 @@
       <c r="J50">
         <v>47260</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>4.4957900000000002E-2</v>
+      </c>
+      <c r="L50">
+        <v>5.9923169999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>130794</v>
       </c>
@@ -3250,6 +3424,12 @@
       </c>
       <c r="J51">
         <v>35300</v>
+      </c>
+      <c r="K51">
+        <v>0.1719762</v>
+      </c>
+      <c r="L51">
+        <v>0.2154324</v>
       </c>
     </row>
   </sheetData>
@@ -3266,12 +3446,12 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.875" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -3288,7 +3468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3305,7 +3485,7 @@
         <v>47380</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3322,7 +3502,7 @@
         <v>40660</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3339,7 +3519,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3356,7 +3536,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3373,7 +3553,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3390,7 +3570,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3407,7 +3587,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -3424,7 +3604,7 @@
         <v>22060</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3441,7 +3621,7 @@
         <v>38300</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -3458,7 +3638,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -3475,7 +3655,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3492,7 +3672,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3509,7 +3689,7 @@
         <v>47900</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3523,7 +3703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -3540,7 +3720,7 @@
         <v>46540</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -3557,7 +3737,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -3574,7 +3754,7 @@
         <v>14010</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -3591,7 +3771,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3608,7 +3788,7 @@
         <v>12580</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -3625,7 +3805,7 @@
         <v>31340</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -3642,7 +3822,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -3659,7 +3839,7 @@
         <v>16980</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -3676,7 +3856,7 @@
         <v>17460</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -3693,7 +3873,7 @@
         <v>31080</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -3710,7 +3890,7 @@
         <v>29200</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -3727,7 +3907,7 @@
         <v>40380</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -3744,7 +3924,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -3761,7 +3941,7 @@
         <v>44140</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -3778,7 +3958,7 @@
         <v>31080</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -3795,7 +3975,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -3812,7 +3992,7 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3829,7 +4009,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -3846,7 +4026,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -3863,7 +4043,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -3880,7 +4060,7 @@
         <v>31080</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -3897,7 +4077,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -3914,7 +4094,7 @@
         <v>16980</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -3931,7 +4111,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -3948,7 +4128,7 @@
         <v>16580</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -3965,7 +4145,7 @@
         <v>33460</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -3982,7 +4162,7 @@
         <v>46140</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -3999,7 +4179,7 @@
         <v>41620</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -4016,7 +4196,7 @@
         <v>42660</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>165</v>
       </c>
@@ -4033,7 +4213,7 @@
         <v>13980</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -4050,7 +4230,7 @@
         <v>49180</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -4064,7 +4244,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -4081,7 +4261,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -4098,7 +4278,7 @@
         <v>41180</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>184</v>
       </c>
@@ -4115,7 +4295,7 @@
         <v>47260</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>188</v>
       </c>

--- a/uni_data.xlsx
+++ b/uni_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susantran/Downloads/POLI SCI 312/312final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87421C3-C138-A042-88B2-701D0D6D48C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197D9328-1B7E-5743-B114-08DC0E3249B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endowments" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="215">
   <si>
     <t>Baylor University</t>
   </si>
@@ -648,6 +648,24 @@
   </si>
   <si>
     <t>h_index</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>liberal</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -1489,18 +1507,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="3" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -1537,8 +1557,17 @@
       <c r="L1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>223232</v>
       </c>
@@ -1575,8 +1604,17 @@
       <c r="L2">
         <v>0.14612289000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2">
+        <v>75</v>
+      </c>
+      <c r="O2">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>139144</v>
       </c>
@@ -1613,8 +1651,14 @@
       <c r="L3">
         <v>0.20356589999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O3">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>164924</v>
       </c>
@@ -1651,8 +1695,17 @@
       <c r="L4">
         <v>0.13700729</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4">
+        <v>38</v>
+      </c>
+      <c r="O4">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>164988</v>
       </c>
@@ -1689,8 +1742,17 @@
       <c r="L5">
         <v>0.1800901</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N5">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>165015</v>
       </c>
@@ -1727,8 +1789,17 @@
       <c r="L6">
         <v>0.13694902</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>211</v>
+      </c>
+      <c r="N6">
+        <v>36</v>
+      </c>
+      <c r="O6">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>217156</v>
       </c>
@@ -1765,8 +1836,17 @@
       <c r="L7">
         <v>0.19382160000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N7">
+        <v>14</v>
+      </c>
+      <c r="O7">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>211273</v>
       </c>
@@ -1803,8 +1883,17 @@
       <c r="L8">
         <v>0.17652899999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8">
+        <v>27</v>
+      </c>
+      <c r="O8">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>173258</v>
       </c>
@@ -1841,8 +1930,17 @@
       <c r="L9">
         <v>0.11464036</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>211440</v>
       </c>
@@ -1879,8 +1977,17 @@
       <c r="L10">
         <v>0.30525659999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>211</v>
+      </c>
+      <c r="N10">
+        <v>25</v>
+      </c>
+      <c r="O10">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>190099</v>
       </c>
@@ -1917,8 +2024,17 @@
       <c r="L11">
         <v>0.17353229000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11">
+        <v>16</v>
+      </c>
+      <c r="O11">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>190150</v>
       </c>
@@ -1955,8 +2071,17 @@
       <c r="L12">
         <v>0.26401659999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>211</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>198419</v>
       </c>
@@ -1993,8 +2118,17 @@
       <c r="L13">
         <v>0.1355248</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>211</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>131469</v>
       </c>
@@ -2031,8 +2165,17 @@
       <c r="L14">
         <v>0.3352736</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>211</v>
+      </c>
+      <c r="N14">
+        <v>63</v>
+      </c>
+      <c r="O14">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>153384</v>
       </c>
@@ -2066,8 +2209,17 @@
       <c r="L15">
         <v>0.17077263000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>213</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>191515</v>
       </c>
@@ -2104,8 +2256,17 @@
       <c r="L16">
         <v>0.28329599999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>213</v>
+      </c>
+      <c r="N16">
+        <v>16</v>
+      </c>
+      <c r="O16">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>166027</v>
       </c>
@@ -2142,8 +2303,17 @@
       <c r="L17">
         <v>0.13696702999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>145646</v>
       </c>
@@ -2180,8 +2350,17 @@
       <c r="L18">
         <v>0.12394814</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18">
+        <v>72</v>
+      </c>
+      <c r="O18">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>153603</v>
       </c>
@@ -2218,8 +2397,17 @@
       <c r="L19">
         <v>0.1252318</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>211</v>
+      </c>
+      <c r="N19">
+        <v>119</v>
+      </c>
+      <c r="O19">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>162928</v>
       </c>
@@ -2256,8 +2444,17 @@
       <c r="L20">
         <v>0.37646580000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>211</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>232557</v>
       </c>
@@ -2294,8 +2491,11 @@
       <c r="L21">
         <v>0.145231</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>193900</v>
       </c>
@@ -2332,8 +2532,17 @@
       <c r="L22">
         <v>0.26402340000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>211</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>147767</v>
       </c>
@@ -2370,8 +2579,17 @@
       <c r="L23">
         <v>0.4026188</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>211</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>204501</v>
       </c>
@@ -2408,8 +2626,17 @@
       <c r="L24">
         <v>0.19849873000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>213</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>121150</v>
       </c>
@@ -2446,8 +2673,17 @@
       <c r="L25">
         <v>0.2129326</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>211</v>
+      </c>
+      <c r="N25">
+        <v>46</v>
+      </c>
+      <c r="O25">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>243780</v>
       </c>
@@ -2484,8 +2720,17 @@
       <c r="L26">
         <v>0.17325180000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>211</v>
+      </c>
+      <c r="N26">
+        <v>56</v>
+      </c>
+      <c r="O26">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>195003</v>
       </c>
@@ -2522,8 +2767,14 @@
       <c r="L27">
         <v>0.27020159999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>186380</v>
       </c>
@@ -2560,8 +2811,14 @@
       <c r="L28">
         <v>0.17047599999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>211</v>
+      </c>
+      <c r="O28">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>167835</v>
       </c>
@@ -2598,8 +2855,17 @@
       <c r="L29">
         <v>6.0377529999999999E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>213</v>
+      </c>
+      <c r="N29">
+        <v>11</v>
+      </c>
+      <c r="O29">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>399911</v>
       </c>
@@ -2636,8 +2902,17 @@
       <c r="L30">
         <v>0.1863882</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>213</v>
+      </c>
+      <c r="N30">
+        <v>22</v>
+      </c>
+      <c r="O30">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>216287</v>
       </c>
@@ -2674,8 +2949,17 @@
       <c r="L31">
         <v>0.35647060000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>213</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>228875</v>
       </c>
@@ -2712,8 +2996,17 @@
       <c r="L32">
         <v>0.1675751</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>211</v>
+      </c>
+      <c r="N32">
+        <v>80</v>
+      </c>
+      <c r="O32">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>192110</v>
       </c>
@@ -2750,8 +3043,11 @@
       <c r="L33">
         <v>0.2640052</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>216366</v>
       </c>
@@ -2788,8 +3084,14 @@
       <c r="L34">
         <v>0.35448499999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>211</v>
+      </c>
+      <c r="O34">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>104179</v>
       </c>
@@ -2826,8 +3128,17 @@
       <c r="L35">
         <v>0.17590539999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>211</v>
+      </c>
+      <c r="N35">
+        <v>106</v>
+      </c>
+      <c r="O35">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>110662</v>
       </c>
@@ -2864,8 +3175,17 @@
       <c r="L36">
         <v>0.2129491</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>211</v>
+      </c>
+      <c r="N36">
+        <v>19</v>
+      </c>
+      <c r="O36">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>110699</v>
       </c>
@@ -2902,8 +3222,11 @@
       <c r="L37">
         <v>0.16713249999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>144050</v>
       </c>
@@ -2940,8 +3263,17 @@
       <c r="L38">
         <v>0.40265240000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>211</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>130943</v>
       </c>
@@ -2978,8 +3310,17 @@
       <c r="L39">
         <v>0.1858223</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
+        <v>211</v>
+      </c>
+      <c r="N39">
+        <v>89</v>
+      </c>
+      <c r="O39">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>145637</v>
       </c>
@@ -3016,8 +3357,14 @@
       <c r="L40">
         <v>0.2023867</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>211</v>
+      </c>
+      <c r="O40">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>174066</v>
       </c>
@@ -3054,8 +3401,17 @@
       <c r="L41">
         <v>0.2024185</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
+        <v>211</v>
+      </c>
+      <c r="N41">
+        <v>76</v>
+      </c>
+      <c r="O41">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>207971</v>
       </c>
@@ -3092,8 +3448,17 @@
       <c r="L42">
         <v>0.1673964</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N42">
+        <v>106</v>
+      </c>
+      <c r="O42">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>230764</v>
       </c>
@@ -3130,8 +3495,14 @@
       <c r="L43">
         <v>0.17858370000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>211</v>
+      </c>
+      <c r="O43">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>236948</v>
       </c>
@@ -3168,8 +3539,17 @@
       <c r="L44">
         <v>0.15945129999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" t="s">
+        <v>211</v>
+      </c>
+      <c r="N44">
+        <v>59</v>
+      </c>
+      <c r="O44">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>233921</v>
       </c>
@@ -3206,8 +3586,17 @@
       <c r="L45">
         <v>0.1106998</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" t="s">
+        <v>211</v>
+      </c>
+      <c r="N45">
+        <v>76</v>
+      </c>
+      <c r="O45">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>199847</v>
       </c>
@@ -3244,8 +3633,17 @@
       <c r="L46">
         <v>0.1975413</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" t="s">
+        <v>211</v>
+      </c>
+      <c r="N46">
+        <v>27</v>
+      </c>
+      <c r="O46">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>234207</v>
       </c>
@@ -3279,8 +3677,17 @@
       <c r="L47">
         <v>9.6098119999999995E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" t="s">
+        <v>213</v>
+      </c>
+      <c r="N47">
+        <v>11</v>
+      </c>
+      <c r="O47">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>236939</v>
       </c>
@@ -3317,8 +3724,14 @@
       <c r="L48">
         <v>0.11570343</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>211</v>
+      </c>
+      <c r="O48">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>179867</v>
       </c>
@@ -3355,8 +3768,17 @@
       <c r="L49">
         <v>0.38596510000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>211</v>
+      </c>
+      <c r="N49">
+        <v>19</v>
+      </c>
+      <c r="O49">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>231624</v>
       </c>
@@ -3393,8 +3815,17 @@
       <c r="L50">
         <v>5.9923169999999998E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" t="s">
+        <v>211</v>
+      </c>
+      <c r="N50">
+        <v>38</v>
+      </c>
+      <c r="O50">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>130794</v>
       </c>
@@ -3430,6 +3861,15 @@
       </c>
       <c r="L51">
         <v>0.2154324</v>
+      </c>
+      <c r="M51" t="s">
+        <v>211</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51">
+        <v>1701</v>
       </c>
     </row>
   </sheetData>

--- a/uni_data.xlsx
+++ b/uni_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susantran/Downloads/POLI SCI 312/312final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197D9328-1B7E-5743-B114-08DC0E3249B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6896EE7-7F00-6744-A848-11915160C59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="216">
   <si>
     <t>Baylor University</t>
   </si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>admit_pct</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1520,7 +1523,7 @@
     <col min="9" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -1566,8 +1569,11 @@
       <c r="O1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>223232</v>
       </c>
@@ -1613,8 +1619,11 @@
       <c r="O2">
         <v>1845</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>139144</v>
       </c>
@@ -1657,8 +1666,11 @@
       <c r="O3">
         <v>1902</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>164924</v>
       </c>
@@ -1704,8 +1716,11 @@
       <c r="O4">
         <v>1863</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>164988</v>
       </c>
@@ -1751,8 +1766,11 @@
       <c r="O5">
         <v>1839</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>165015</v>
       </c>
@@ -1798,8 +1816,11 @@
       <c r="O6">
         <v>1948</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>217156</v>
       </c>
@@ -1845,8 +1866,11 @@
       <c r="O7">
         <v>1764</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>211273</v>
       </c>
@@ -1892,8 +1916,11 @@
       <c r="O8">
         <v>1885</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>173258</v>
       </c>
@@ -1939,8 +1966,11 @@
       <c r="O9">
         <v>1866</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>211440</v>
       </c>
@@ -1986,8 +2016,11 @@
       <c r="O10">
         <v>1900</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>190099</v>
       </c>
@@ -2033,8 +2066,11 @@
       <c r="O11">
         <v>1819</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>190150</v>
       </c>
@@ -2080,8 +2116,11 @@
       <c r="O12">
         <v>1754</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>198419</v>
       </c>
@@ -2127,8 +2166,11 @@
       <c r="O13">
         <v>1838</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>131469</v>
       </c>
@@ -2174,8 +2216,11 @@
       <c r="O14">
         <v>1821</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>153384</v>
       </c>
@@ -2218,8 +2263,11 @@
       <c r="O15">
         <v>1846</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>191515</v>
       </c>
@@ -2265,8 +2313,11 @@
       <c r="O16">
         <v>1793</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>166027</v>
       </c>
@@ -2312,8 +2363,11 @@
       <c r="O17">
         <v>1636</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>145646</v>
       </c>
@@ -2359,8 +2413,11 @@
       <c r="O18">
         <v>1850</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>153603</v>
       </c>
@@ -2406,8 +2463,11 @@
       <c r="O19">
         <v>1858</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>162928</v>
       </c>
@@ -2453,8 +2513,11 @@
       <c r="O20">
         <v>1876</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>232557</v>
       </c>
@@ -2494,8 +2557,11 @@
       <c r="O21">
         <v>1971</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>193900</v>
       </c>
@@ -2541,8 +2607,11 @@
       <c r="O22">
         <v>1831</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>147767</v>
       </c>
@@ -2588,8 +2657,11 @@
       <c r="O23">
         <v>1851</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>204501</v>
       </c>
@@ -2635,8 +2707,11 @@
       <c r="O24">
         <v>1833</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>121150</v>
       </c>
@@ -2682,8 +2757,11 @@
       <c r="O25">
         <v>1937</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>243780</v>
       </c>
@@ -2729,8 +2807,11 @@
       <c r="O26">
         <v>1869</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>195003</v>
       </c>
@@ -2773,8 +2854,11 @@
       <c r="O27">
         <v>1829</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>186380</v>
       </c>
@@ -2817,8 +2901,11 @@
       <c r="O28">
         <v>1766</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>167835</v>
       </c>
@@ -2864,8 +2951,11 @@
       <c r="O29">
         <v>1871</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>399911</v>
       </c>
@@ -2911,8 +3001,11 @@
       <c r="O30">
         <v>1987</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>216287</v>
       </c>
@@ -2958,8 +3051,11 @@
       <c r="O31">
         <v>1864</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>228875</v>
       </c>
@@ -3005,8 +3101,11 @@
       <c r="O32">
         <v>1873</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>192110</v>
       </c>
@@ -3046,8 +3145,11 @@
       <c r="O33">
         <v>1905</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>216366</v>
       </c>
@@ -3090,8 +3192,11 @@
       <c r="O34">
         <v>1824</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>104179</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="O35">
         <v>1885</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>110662</v>
       </c>
@@ -3184,8 +3292,11 @@
       <c r="O36">
         <v>1919</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>110699</v>
       </c>
@@ -3226,7 +3337,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>144050</v>
       </c>
@@ -3272,8 +3383,11 @@
       <c r="O38">
         <v>1890</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>130943</v>
       </c>
@@ -3319,8 +3433,11 @@
       <c r="O39">
         <v>1743</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>145637</v>
       </c>
@@ -3363,8 +3480,11 @@
       <c r="O40">
         <v>1867</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>174066</v>
       </c>
@@ -3410,8 +3530,11 @@
       <c r="O41">
         <v>1851</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>207971</v>
       </c>
@@ -3457,8 +3580,11 @@
       <c r="O42">
         <v>1894</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>230764</v>
       </c>
@@ -3501,8 +3627,11 @@
       <c r="O43">
         <v>1850</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>236948</v>
       </c>
@@ -3548,8 +3677,11 @@
       <c r="O44">
         <v>1861</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>233921</v>
       </c>
@@ -3595,8 +3727,11 @@
       <c r="O45">
         <v>1872</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>199847</v>
       </c>
@@ -3642,8 +3777,11 @@
       <c r="O46">
         <v>1834</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>234207</v>
       </c>
@@ -3686,8 +3824,11 @@
       <c r="O47">
         <v>1749</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>236939</v>
       </c>
@@ -3730,8 +3871,11 @@
       <c r="O48">
         <v>1889</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>179867</v>
       </c>
@@ -3777,8 +3921,11 @@
       <c r="O49">
         <v>1853</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>231624</v>
       </c>
@@ -3824,8 +3971,11 @@
       <c r="O50">
         <v>1693</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>130794</v>
       </c>
@@ -3870,6 +4020,9 @@
       </c>
       <c r="O51">
         <v>1701</v>
+      </c>
+      <c r="P51">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/uni_data.xlsx
+++ b/uni_data.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susantran/Downloads/POLI SCI 312/312final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6896EE7-7F00-6744-A848-11915160C59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CDB1AC-4A00-B749-B4A2-E73287F7D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14120" yWindow="500" windowWidth="13440" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endowments" sheetId="1" r:id="rId1"/>
     <sheet name="zip codes" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="218">
   <si>
     <t>Baylor University</t>
   </si>
@@ -659,9 +671,6 @@
     <t>national</t>
   </si>
   <si>
-    <t>regional</t>
-  </si>
-  <si>
     <t>liberal</t>
   </si>
   <si>
@@ -669,6 +678,15 @@
   </si>
   <si>
     <t>admit_pct</t>
+  </si>
+  <si>
+    <t>ranking22</t>
+  </si>
+  <si>
+    <t>regional south</t>
+  </si>
+  <si>
+    <t>arts</t>
   </si>
 </sst>
 </file>
@@ -1510,20 +1528,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11" customWidth="1"/>
+    <col min="3" max="7" width="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="12" width="11" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -1567,13 +1586,16 @@
         <v>210</v>
       </c>
       <c r="O1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" t="s">
         <v>214</v>
       </c>
-      <c r="P1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>223232</v>
       </c>
@@ -1617,13 +1639,16 @@
         <v>75</v>
       </c>
       <c r="O2">
+        <v>75</v>
+      </c>
+      <c r="P2">
         <v>1845</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>139144</v>
       </c>
@@ -1661,16 +1686,19 @@
         <v>0.20356589999999999</v>
       </c>
       <c r="M3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
         <v>1902</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>164924</v>
       </c>
@@ -1714,13 +1742,16 @@
         <v>38</v>
       </c>
       <c r="O4">
+        <v>36</v>
+      </c>
+      <c r="P4">
         <v>1863</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>164988</v>
       </c>
@@ -1764,13 +1795,16 @@
         <v>42</v>
       </c>
       <c r="O5">
+        <v>42</v>
+      </c>
+      <c r="P5">
         <v>1839</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>165015</v>
       </c>
@@ -1814,13 +1848,16 @@
         <v>36</v>
       </c>
       <c r="O6">
+        <v>42</v>
+      </c>
+      <c r="P6">
         <v>1948</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>217156</v>
       </c>
@@ -1864,13 +1901,16 @@
         <v>14</v>
       </c>
       <c r="O7">
+        <v>14</v>
+      </c>
+      <c r="P7">
         <v>1764</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>211273</v>
       </c>
@@ -1908,19 +1948,22 @@
         <v>0.17652899999999999</v>
       </c>
       <c r="M8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N8">
         <v>27</v>
       </c>
       <c r="O8">
+        <v>30</v>
+      </c>
+      <c r="P8">
         <v>1885</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>173258</v>
       </c>
@@ -1958,19 +2001,22 @@
         <v>0.11464036</v>
       </c>
       <c r="M9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N9">
         <v>5</v>
       </c>
       <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="P9">
         <v>1866</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>211440</v>
       </c>
@@ -2014,13 +2060,16 @@
         <v>25</v>
       </c>
       <c r="O10">
+        <v>25</v>
+      </c>
+      <c r="P10">
         <v>1900</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>190099</v>
       </c>
@@ -2058,19 +2107,22 @@
         <v>0.17353229000000001</v>
       </c>
       <c r="M11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N11">
         <v>16</v>
       </c>
       <c r="O11">
+        <v>17</v>
+      </c>
+      <c r="P11">
         <v>1819</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>190150</v>
       </c>
@@ -2114,13 +2166,16 @@
         <v>3</v>
       </c>
       <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
         <v>1754</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>198419</v>
       </c>
@@ -2164,13 +2219,16 @@
         <v>8</v>
       </c>
       <c r="O13">
+        <v>9</v>
+      </c>
+      <c r="P13">
         <v>1838</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>131469</v>
       </c>
@@ -2214,13 +2272,16 @@
         <v>63</v>
       </c>
       <c r="O14">
+        <v>63</v>
+      </c>
+      <c r="P14">
         <v>1821</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>153384</v>
       </c>
@@ -2255,19 +2316,22 @@
         <v>0.17077263000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N15">
         <v>11</v>
       </c>
       <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
         <v>1846</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>191515</v>
       </c>
@@ -2305,19 +2369,22 @@
         <v>0.28329599999999999</v>
       </c>
       <c r="M16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N16">
         <v>16</v>
       </c>
       <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
         <v>1793</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>166027</v>
       </c>
@@ -2361,13 +2428,16 @@
         <v>2</v>
       </c>
       <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
         <v>1636</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>145646</v>
       </c>
@@ -2405,19 +2475,22 @@
         <v>0.12394814</v>
       </c>
       <c r="M18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N18">
         <v>72</v>
       </c>
       <c r="O18">
+        <v>89</v>
+      </c>
+      <c r="P18">
         <v>1850</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>153603</v>
       </c>
@@ -2461,13 +2534,16 @@
         <v>119</v>
       </c>
       <c r="O19">
+        <v>122</v>
+      </c>
+      <c r="P19">
         <v>1858</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>162928</v>
       </c>
@@ -2511,13 +2587,16 @@
         <v>10</v>
       </c>
       <c r="O20">
+        <v>9</v>
+      </c>
+      <c r="P20">
         <v>1876</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>232557</v>
       </c>
@@ -2554,14 +2633,20 @@
       <c r="L21">
         <v>0.145231</v>
       </c>
+      <c r="M21" t="s">
+        <v>211</v>
+      </c>
       <c r="O21">
+        <v>299</v>
+      </c>
+      <c r="P21">
         <v>1971</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>193900</v>
       </c>
@@ -2605,13 +2690,16 @@
         <v>30</v>
       </c>
       <c r="O22">
+        <v>28</v>
+      </c>
+      <c r="P22">
         <v>1831</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>147767</v>
       </c>
@@ -2655,13 +2743,16 @@
         <v>10</v>
       </c>
       <c r="O23">
+        <v>9</v>
+      </c>
+      <c r="P23">
         <v>1851</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>204501</v>
       </c>
@@ -2699,19 +2790,22 @@
         <v>0.19849873000000001</v>
       </c>
       <c r="M24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N24">
         <v>30</v>
       </c>
       <c r="O24">
+        <v>37</v>
+      </c>
+      <c r="P24">
         <v>1833</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>121150</v>
       </c>
@@ -2755,13 +2849,16 @@
         <v>46</v>
       </c>
       <c r="O25">
+        <v>49</v>
+      </c>
+      <c r="P25">
         <v>1937</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>243780</v>
       </c>
@@ -2805,13 +2902,16 @@
         <v>56</v>
       </c>
       <c r="O26">
+        <v>49</v>
+      </c>
+      <c r="P26">
         <v>1869</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>195003</v>
       </c>
@@ -2852,13 +2952,16 @@
         <v>211</v>
       </c>
       <c r="O27">
+        <v>117</v>
+      </c>
+      <c r="P27">
         <v>1829</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>186380</v>
       </c>
@@ -2899,13 +3002,16 @@
         <v>211</v>
       </c>
       <c r="O28">
+        <v>63</v>
+      </c>
+      <c r="P28">
         <v>1766</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>167835</v>
       </c>
@@ -2943,19 +3049,22 @@
         <v>6.0377529999999999E-2</v>
       </c>
       <c r="M29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N29">
         <v>11</v>
       </c>
       <c r="O29">
+        <v>17</v>
+      </c>
+      <c r="P29">
         <v>1871</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>399911</v>
       </c>
@@ -2993,19 +3102,22 @@
         <v>0.1863882</v>
       </c>
       <c r="M30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N30">
         <v>22</v>
       </c>
       <c r="O30">
+        <v>29</v>
+      </c>
+      <c r="P30">
         <v>1987</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>216287</v>
       </c>
@@ -3043,19 +3155,22 @@
         <v>0.35647060000000003</v>
       </c>
       <c r="M31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N31">
         <v>3</v>
       </c>
       <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
         <v>1864</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>228875</v>
       </c>
@@ -3099,13 +3214,16 @@
         <v>80</v>
       </c>
       <c r="O32">
+        <v>83</v>
+      </c>
+      <c r="P32">
         <v>1873</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>192110</v>
       </c>
@@ -3142,14 +3260,17 @@
       <c r="L33">
         <v>0.2640052</v>
       </c>
-      <c r="O33">
+      <c r="M33" t="s">
+        <v>217</v>
+      </c>
+      <c r="P33">
         <v>1905</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>216366</v>
       </c>
@@ -3190,13 +3311,16 @@
         <v>211</v>
       </c>
       <c r="O34">
+        <v>148</v>
+      </c>
+      <c r="P34">
         <v>1824</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>104179</v>
       </c>
@@ -3240,13 +3364,16 @@
         <v>106</v>
       </c>
       <c r="O35">
+        <v>103</v>
+      </c>
+      <c r="P35">
         <v>1885</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>110662</v>
       </c>
@@ -3290,13 +3417,16 @@
         <v>19</v>
       </c>
       <c r="O36">
+        <v>20</v>
+      </c>
+      <c r="P36">
         <v>1919</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>110699</v>
       </c>
@@ -3333,11 +3463,11 @@
       <c r="L37">
         <v>0.16713249999999999</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>1864</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>144050</v>
       </c>
@@ -3381,13 +3511,16 @@
         <v>3</v>
       </c>
       <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="P38">
         <v>1890</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>130943</v>
       </c>
@@ -3431,13 +3564,16 @@
         <v>89</v>
       </c>
       <c r="O39">
+        <v>93</v>
+      </c>
+      <c r="P39">
         <v>1743</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>145637</v>
       </c>
@@ -3478,13 +3614,16 @@
         <v>211</v>
       </c>
       <c r="O40">
+        <v>47</v>
+      </c>
+      <c r="P40">
         <v>1867</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>174066</v>
       </c>
@@ -3528,13 +3667,16 @@
         <v>76</v>
       </c>
       <c r="O41">
+        <v>68</v>
+      </c>
+      <c r="P41">
         <v>1851</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>207971</v>
       </c>
@@ -3578,13 +3720,16 @@
         <v>106</v>
       </c>
       <c r="O42">
+        <v>136</v>
+      </c>
+      <c r="P42">
         <v>1894</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>230764</v>
       </c>
@@ -3625,13 +3770,16 @@
         <v>211</v>
       </c>
       <c r="O43">
+        <v>99</v>
+      </c>
+      <c r="P43">
         <v>1850</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>236948</v>
       </c>
@@ -3675,13 +3823,16 @@
         <v>59</v>
       </c>
       <c r="O44">
+        <v>59</v>
+      </c>
+      <c r="P44">
         <v>1861</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>233921</v>
       </c>
@@ -3725,13 +3876,16 @@
         <v>76</v>
       </c>
       <c r="O45">
+        <v>75</v>
+      </c>
+      <c r="P45">
         <v>1872</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>199847</v>
       </c>
@@ -3775,13 +3929,16 @@
         <v>27</v>
       </c>
       <c r="O46">
+        <v>28</v>
+      </c>
+      <c r="P46">
         <v>1834</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>234207</v>
       </c>
@@ -3816,19 +3973,22 @@
         <v>9.6098119999999995E-2</v>
       </c>
       <c r="M47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N47">
         <v>11</v>
       </c>
       <c r="O47">
+        <v>11</v>
+      </c>
+      <c r="P47">
         <v>1749</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>236939</v>
       </c>
@@ -3868,14 +4028,14 @@
       <c r="M48" t="s">
         <v>211</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>1889</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>179867</v>
       </c>
@@ -3919,13 +4079,16 @@
         <v>19</v>
       </c>
       <c r="O49">
+        <v>14</v>
+      </c>
+      <c r="P49">
         <v>1853</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>231624</v>
       </c>
@@ -3969,13 +4132,16 @@
         <v>38</v>
       </c>
       <c r="O50">
+        <v>38</v>
+      </c>
+      <c r="P50">
         <v>1693</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>130794</v>
       </c>
@@ -4019,9 +4185,12 @@
         <v>3</v>
       </c>
       <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51">
         <v>1701</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>6</v>
       </c>
     </row>
